--- a/medicine/Enfance/William_Robert_Cox/William_Robert_Cox.xlsx
+++ b/medicine/Enfance/William_Robert_Cox/William_Robert_Cox.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Robert Cox, mieux connu sous la signature William R. Cox, né le 14 mars 1901 à Peapack and Gladstone, et mort le 7 juillet 1988 à Los Angeles, est un auteur américain de roman policier, de roman western et de littérature d'enfance et de jeunesse. Il a également signé plusieurs centaines de nouvelles et utiliser les pseudonymes Willard d'Arcy, Mike Frederic, Lance Kermit, John Parkhill, Joel Reeve, Wayne Robbins, Roger G. Spellman et Jonas Ward.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Élevé dans les quartiers populaires de Newark, il abandonne très tôt ses études, apprend la boxe pour se défendre et joue au football américain. Dans ce sport, il devient un athlète professionnel pour une équipe de Newark. Ayant repris ses études sur le tard, il suit des cours aux universités Rutgers et Princeton. Dans les années 1920, il fait une brève carrière dans le journalisme sportif.
 Il amorce sa carrière littéraire dans les années 1930 en publiant des histoires sportives, ainsi que des nouvelles policières et westerns dans des pulps, notamment dans Black Mask. Dans les années 1940, il publie dans des magazines aussi prestigieux que Collier's Weekly et The Saturday Evening Post.  Il ne donne son premier roman qu'à l'âge de 53 ans avec Les P’tits Mecs (1954), dans lequel un homme revient dans son patelin natal pour venger le meurtre de son père mêlé aux activités illicites de salles de jeux et de champs de course. Cette œuvre, qui n'est pas sans rappeler La Clé de verre de Dashiell Hammett, est suivie d'autres romans policiers qui reprennent souvent le même thème. Hot Times (1973), son dernier roman policier, utilise une intrigue criminelle assez lâche au profit d'une évocation de l'époque de la naissance du jazz.
@@ -547,24 +561,147 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série policière Tom Kincaid
-Hell to Pay (1958) Publié en français sous le titre Annoncez la couleur !, Paris, Gallimard, Série noire no 493, 1959
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série policière Tom Kincaid</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Hell to Pay (1958) Publié en français sous le titre Annoncez la couleur !, Paris, Gallimard, Série noire no 493, 1959
 Murder in Vegas (1960)
-Death on Location (1962)
-Autres romans policiers
-Make My Coffin Strong (1954) Publié en français sous le titre Les P’tits Mecs, Paris, Gallimard, Série noire no 633, 1961
+Death on Location (1962)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>William_Robert_Cox</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Robert_Cox</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Autres romans policiers</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Make My Coffin Strong (1954) Publié en français sous le titre Les P’tits Mecs, Paris, Gallimard, Série noire no 633, 1961
 The Tycoon and the Tigress (1958)
 Death Comes Early (1961) Publié en français sous le titre Cœur de Lila, Paris, Gallimard, Série noire no 778, 1962
 Way to Go, Doll Baby! (1967)
-Hot Times (1973)
-Série western Cemetery Jones
-Cemetery Jones (1985)
+Hot Times (1973)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>William_Robert_Cox</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Robert_Cox</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série western Cemetery Jones</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Cemetery Jones (1985)
 Cemeterry Jones and the Maverick Kid (1986)
 Cemeterry Jones and the Dancing Guns (1987)
 Cemeterry Jones and the Gunslingers (1988)
-Cemeterry Jones and the Tombstone War (1990)
-Série western Buchanan signée Jonas Ward
+Cemeterry Jones and the Tombstone War (1990)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>William_Robert_Cox</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Robert_Cox</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série western Buchanan signée Jonas Ward</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Buchanan's War (1970)
 Trap for Buchanan (1971)
 Buchanan's Gamble (1972)
@@ -579,10 +716,87 @@
 Buchanan's Manhunt (1978)
 Buchanan's Range War (1979)
 Buchanan's Big Fight (1980)
-Roman western signé Roger G. Spellman
-Tall for a Texan (1965)
-Autres romans westerns signés William R. Cox
-The Lusty Men (1957)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>William_Robert_Cox</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Robert_Cox</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Roman western signé Roger G. Spellman</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Tall for a Texan (1965)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>William_Robert_Cox</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Robert_Cox</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Autres romans westerns signés William R. Cox</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>The Lusty Men (1957)
 Comanche Moon (1959) Publié en français sous le titre Le Raid de la pleine lune, Paris, Librairie des Champs-Élysées, Le Masque no 945, 1966 ; réédition, Paris, Librairie des Champs-Élysées, Masque-Western no 67, 1972
 The Duke (1962), rééditions en 1963 et 1968
 The Outlawed (1963), réédition en 1973
@@ -597,14 +811,89 @@
 Jack O’Diamonds (1972), réédition 1975
 The Gunsharp (1973)
 The 4th-of-July Kid (1981)
-Gunfight at Razor Edge (1988), publication posthume
-Littérature d’enfance et de jeunesse
-Série Frank Merriwell signée Mike Frederic
-Frank Merriwell, Freshman Quarterback (1965)
+Gunfight at Razor Edge (1988), publication posthume</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>William_Robert_Cox</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Robert_Cox</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Littérature d’enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Série Frank Merriwell signée Mike Frederic</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Frank Merriwell, Freshman Quarterback (1965)
 Frank Merriwell, Freshman Pitcher (1965)
-Frank Merriwell, Sports Car Racer (1965)
-Autres romans signés William R. Cox
-Five Were Chosen (1956)
+Frank Merriwell, Sports Car Racer (1965)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>William_Robert_Cox</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Robert_Cox</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Littérature d’enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Autres romans signés William R. Cox</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Five Were Chosen (1956)
 Gridiron Duel (1959)
 The Wild Pitch (1963)
 Tall On the Court (1964)
@@ -624,17 +913,161 @@
 Game, Set, and Match (1973), réédition 1977
 The Unbeatable Five (1974)
 Battery Mates (1978)
-Home Court Is Where You Find It (1980)
-Autre roman signé Joel Reeve
-Goal Ahead! (1967)
-Novellisations
-Bonanza: Black Silver (1967)
-Firecreek (1968)
-Autres publications
-Luke Short and His Era ou Luke Short: Famous Gambler of the Old West (1961)
-The Mets Will Win the Pennant (1964)
-Nouvelles
-Série Tom Kincaid
+Home Court Is Where You Find It (1980)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>William_Robert_Cox</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Robert_Cox</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Littérature d’enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Autre roman signé Joel Reeve</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Goal Ahead! (1967)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>William_Robert_Cox</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Robert_Cox</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Novellisations</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Bonanza: Black Silver (1967)
+Firecreek (1968)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>William_Robert_Cox</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Robert_Cox</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Luke Short and His Era ou Luke Short: Famous Gambler of the Old West (1961)
+The Mets Will Win the Pennant (1964)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>William_Robert_Cox</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Robert_Cox</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Série Tom Kincaid</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Death's Black Ace (1941)
 Carnival of Death (1941)
 Murder Raises the Ante (1941)
@@ -648,15 +1081,93 @@
 Hell Comes in Bottles! (1944)
 Ready Action - Murder (1945)
 They'll Kill Me (1945)
-Série John Wade
-John Wade - Corpse Attorney (1939)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>William_Robert_Cox</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Robert_Cox</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Série John Wade</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>John Wade - Corpse Attorney (1939)
 John Wade - Mob Exterminator (1940)
 John Wade - DR. of Murder (1940)
 John Wade and the Hanging Corpses (1941)
 John Wade’s Murder Come-Back (1942)
 The Corpse of John Wade (1942)
-John Wade's Better Death Trap (1945)
-Série Duke Bagley
+John Wade's Better Death Trap (1945)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>William_Robert_Cox</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Robert_Cox</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Série Duke Bagley</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Duke Bagley’s Indian Medicine (1942)
 Duke Bagley—Feud-Breaker (1943)
 Duke Bagley’s Gallows Rendezvous (1943)
@@ -672,14 +1183,92 @@
 Duke Bagley Doubles for Death (1945)
 The Duke Bets on Bullets (1946)
 The Duke Hunts a Helltown (1946)
-Série Whistler Kid
-The Whistler Kid Takes Over (1945)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>William_Robert_Cox</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Robert_Cox</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Série Whistler Kid</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>The Whistler Kid Takes Over (1945)
 The Whistler Kid and the Hangman (1946)
 The Whistler Calls Quits (1947)
 The Whistler’s Owlhoot Raid (1948)
 Hogtie That Devil, Whistler! (1948)
-The Whistler and the Devil Deputies (1949)
-Autres nouvelles signées William R. Cox
+The Whistler and the Devil Deputies (1949)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>William_Robert_Cox</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Robert_Cox</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Autres nouvelles signées William R. Cox</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Front Runner (1935)
 The Misfit Five (1936)
 Grudge-Fight Nemesis (1936)
@@ -1173,7 +1762,47 @@
 Billy the Button (1970)
 Death for a Horseman (1971)
 The Phone Call (1972)
-Signées Joel Reeves
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>William_Robert_Cox</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Robert_Cox</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Signées Joel Reeves</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 But Everything! (1941)
 Ten Rounds for Baby (1941)
 Final Round (1942)
@@ -1276,43 +1905,198 @@
 “Never Been Away!” (1952)
 Set a Thief (1952)
 It Signifies (1952)
-Signées John Parkhill
-Second-Hand Coffin (1943)
-Slip That Pass in the Night (1945)
-Signée Willard d'Arcy
-Satan Trades in Debutants (1940)
-Signée Wayne Robbins
-The Thing in Search of a Body  (1940)
-Signée Lance Kermit
-Bootprints in the Dust (1941)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>William_Robert_Cox</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/William_Robert_Cox</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>William_Robert_Cox</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Robert_Cox</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Signées John Parkhill</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Second-Hand Coffin (1943)
+Slip That Pass in the Night (1945)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>William_Robert_Cox</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Robert_Cox</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Signée Willard d'Arcy</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Satan Trades in Debutants (1940)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>William_Robert_Cox</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Robert_Cox</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Signée Wayne Robbins</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>The Thing in Search of a Body  (1940)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>William_Robert_Cox</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Robert_Cox</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Signée Lance Kermit</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Bootprints in the Dust (1941)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>William_Robert_Cox</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Robert_Cox</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t>Jacques Baudou et Jean-Jacques Schleret, Le Vrai Visage du Masque, vol. 1, Paris, Futuropolis, 1984, 476 p. (OCLC 311506692), p. 132.
 Claude Mesplède et Jean-Jacques Schleret, SN, voyage au bout de la Noire : inventaire de 732 auteurs et de leurs œuvres publiés en séries Noire et Blème : suivi d'une filmographie complète, Paris, Futuropolis, 1982, 476 p. (OCLC 11972030), p. 91-92.* Claude Mesplède (dir.), Dictionnaire des littératures policières, vol. 1 : A - I, Nantes, Joseph K, coll. « Temps noir », 2007, 1054 p. (ISBN 978-2-910686-44-4, OCLC 315873251), p. 488-489.
